--- a/input_csv/07_Prozessor_AMD/artikel.xlsx
+++ b/input_csv/07_Prozessor_AMD/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\07_Prozessor_AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4E89A-FBAB-46AD-92D0-747583247781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF0E1E-2ED6-44C7-A53F-0B949214135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04F4C7B8-05B3-4356-A211-D99FAF6A5F8A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Artikelname</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>GTIN</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 PRO 5755G - 8x 3.8GHz (Turbotakt bis 4.6GHz)</t>
-  </si>
-  <si>
-    <t>0730143317047</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 9950X3D - 16x4.3GHz (Turbotakt bis 5.7GHz)</t>
   </si>
 </sst>
 </file>
@@ -902,7 +893,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,26 +915,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>107174</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>106860</v>
-      </c>
-      <c r="C3" s="1">
-        <v>730143315555</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>

--- a/input_csv/07_Prozessor_AMD/artikel.xlsx
+++ b/input_csv/07_Prozessor_AMD/artikel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\07_Prozessor_AMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECF0E1E-2ED6-44C7-A53F-0B949214135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD38AA-C8B2-4285-83A8-0B14F0A952B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04F4C7B8-05B3-4356-A211-D99FAF6A5F8A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04F4C7B8-05B3-4356-A211-D99FAF6A5F8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prozessor_AMD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Artikelname</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>GTIN</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 9900X3D</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +918,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>106861</v>
+      </c>
+      <c r="C2" s="1">
+        <v>730143315579</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
